--- a/sprawka/pea_etap2.xlsx
+++ b/sprawka/pea_etap2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="232" documentId="11_AD4DADEC636C81CAC000E834B21F79F45ADEDD98" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7126467E-78FE-4C02-B460-17540226248A}"/>
+  <xr:revisionPtr revIDLastSave="411" documentId="11_AD4DADEC636C81CAC000E834B21F79F45ADEDD98" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1C3A84D8-FAFB-4393-BE08-9E8A526B4415}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
   <si>
     <t>best</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>wynik</t>
-  </si>
-  <si>
-    <t>SMALL (500, 10, -30, 10)</t>
-  </si>
-  <si>
-    <t>SMALL (5000, 10, -30, 10)</t>
   </si>
   <si>
     <t>suma</t>
@@ -84,18 +78,103 @@
   <si>
     <t>ATSP (1000, 10, -30, 10)</t>
   </si>
+  <si>
+    <t>rozmiar</t>
+  </si>
+  <si>
+    <t>TSP (1000, 10, -30, 10)</t>
+  </si>
+  <si>
+    <t>SMALL (12000, 10, -30, 10)</t>
+  </si>
+  <si>
+    <t>SMALL (6000, 10, -30, 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">błąd średni: </t>
+  </si>
+  <si>
+    <t>ATSP (2000, 10, -30, 10)</t>
+  </si>
+  <si>
+    <t>ATSP (6000, 10, -30, 10)</t>
+  </si>
+  <si>
+    <t>TSP (2000, 10, -30, 10)</t>
+  </si>
+  <si>
+    <t>TSP (6000, 10, -30, 10)</t>
+  </si>
+  <si>
+    <t>ATSP (2000, 30, -30, 10)</t>
+  </si>
+  <si>
+    <t>65.9141</t>
+  </si>
+  <si>
+    <t>374.255</t>
+  </si>
+  <si>
+    <t>661.367</t>
+  </si>
+  <si>
+    <t>632.789</t>
+  </si>
+  <si>
+    <t>1137.91</t>
+  </si>
+  <si>
+    <t>1406.56</t>
+  </si>
+  <si>
+    <t>3237.36</t>
+  </si>
+  <si>
+    <t>TSP (2000, 30, -30, 10)</t>
+  </si>
+  <si>
+    <t>45.0069</t>
+  </si>
+  <si>
+    <t>75.3112</t>
+  </si>
+  <si>
+    <t>127.77</t>
+  </si>
+  <si>
+    <t>176.958</t>
+  </si>
+  <si>
+    <t>200.444</t>
+  </si>
+  <si>
+    <t>641.179</t>
+  </si>
+  <si>
+    <t>1050.23</t>
+  </si>
+  <si>
+    <t>6619.83</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -129,6 +208,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -144,6 +224,4654 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Porównanie czasów SMALL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3824294804200789"/>
+          <c:y val="3.2295271049596307E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$M$4:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$K$4:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.192500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.458400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.455300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.264199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.099299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.442699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.9803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-445B-42DB-92DF-B10CB35437E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$M$4:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$Q$4:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>50.430599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.748800000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.267300000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171.797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157.346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149.87200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>233.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-445B-42DB-92DF-B10CB35437E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>12000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$M$4:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$W$4:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>123.069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217.66200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292.10599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332.81200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299.94400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>383.166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-445B-42DB-92DF-B10CB35437E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1373774799"/>
+        <c:axId val="1373385951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1373774799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rozmiar</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> instancji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373385951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1373385951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373774799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Porównanie czasów TSP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$G$64:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$K$64:$K$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24.5426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.960700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.91900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>367.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>710.38199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1314.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4578.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0585-4C56-91AD-DE779A54B9C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$G$64:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$K$80:$K$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42.919499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.953299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223.042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>641.726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1128.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6705.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0585-4C56-91AD-DE779A54B9C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$G$64:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$K$94:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>146.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>355.67599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>394.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>686.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>740.86699999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1879.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3626.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22509.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0585-4C56-91AD-DE779A54B9C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1489631919"/>
+        <c:axId val="1371344031"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1489631919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rozmiar</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> instancji</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371344031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1371344031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1489631919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Porównanie czasów</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$79:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$64:$E$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40.320700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292.02199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>686.31700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1015.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1621.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2460.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3858.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3AD7-4316-A6A1-9DE16C7353C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$79:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$79:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>69.519400000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>432.84500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>662.21500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>644.90200000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1167.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1628.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3099.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3AD7-4316-A6A1-9DE16C7353C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>6000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$79:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$94:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>221.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2176.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2081.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3613.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5031.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10290.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3AD7-4316-A6A1-9DE16C7353C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1498337727"/>
+        <c:axId val="1589868015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1498337727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rozmiar instancji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589868015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1589868015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498337727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tabu Search</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$94:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15.059952038369305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.294421869227929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.842767295597483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7235859124866595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.683229813664596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.950383933845245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.37251512532411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F60-4A83-9796-ECD1EFD92159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1804277072"/>
+        <c:axId val="1706337760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1804277072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1706337760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1706337760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804277072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>248434</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>105503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>557044</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134078</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA426F4-947B-4860-B61A-E2104D3271D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352201</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>73342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158563</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>94297</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F70998-A021-4A9F-990F-EA1430C994E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82138</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>517262</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>176268</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710035A4-674A-42CE-8647-9060D2DBF618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>416859</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>237565</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACC2ACC-A4CF-4783-80D1-053783A3D612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,10 +5137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W73"/>
+  <dimension ref="A2:AC149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="S69" sqref="S69"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,38 +5154,26 @@
     <col min="23" max="23" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1"/>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
@@ -486,24 +5202,29 @@
       <c r="Q3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>212</v>
-      </c>
-      <c r="C4" s="2">
-        <v>443</v>
-      </c>
-      <c r="D4" s="3">
-        <f>((C4-B4)*100)/B4</f>
-        <v>108.9622641509434</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5.5566899999999997</v>
-      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="G4" s="2">
         <v>10</v>
       </c>
@@ -518,7 +5239,7 @@
         <v>61.79245283018868</v>
       </c>
       <c r="K4" s="3">
-        <v>10.4598</v>
+        <v>9.77</v>
       </c>
       <c r="M4" s="2">
         <v>10</v>
@@ -527,33 +5248,43 @@
         <v>212</v>
       </c>
       <c r="O4" s="2">
-        <v>443</v>
+        <v>563</v>
       </c>
       <c r="P4" s="3">
         <f>((O4-N4)*100)/N4</f>
-        <v>108.9622641509434</v>
+        <v>165.56603773584905</v>
       </c>
       <c r="Q4" s="3">
-        <v>46.924199999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>202</v>
-      </c>
-      <c r="C5" s="2">
-        <v>234</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:D12" si="0">((C5-B5)*100)/B5</f>
-        <v>15.841584158415841</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10.52</v>
-      </c>
+        <v>50.430599999999998</v>
+      </c>
+      <c r="S4" s="2">
+        <v>10</v>
+      </c>
+      <c r="T4" s="2">
+        <v>212</v>
+      </c>
+      <c r="U4" s="2">
+        <v>563</v>
+      </c>
+      <c r="V4" s="3">
+        <f>((U4-T4)*100)/T4</f>
+        <v>165.56603773584905</v>
+      </c>
+      <c r="W4" s="3">
+        <v>123.069</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="G5" s="2">
         <v>11</v>
       </c>
@@ -564,11 +5295,11 @@
         <v>234</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J12" si="1">((I5-H5)*100)/H5</f>
+        <f>((I5-H5)*100)/H5</f>
         <v>15.841584158415841</v>
       </c>
       <c r="K5" s="3">
-        <v>23.379899999999999</v>
+        <v>9.85</v>
       </c>
       <c r="M5" s="2">
         <v>11</v>
@@ -580,130 +5311,160 @@
         <v>234</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P5:P12" si="2">((O5-N5)*100)/N5</f>
+        <f t="shared" ref="P5:P12" si="0">((O5-N5)*100)/N5</f>
         <v>15.841584158415841</v>
       </c>
       <c r="Q5" s="3">
-        <v>106.119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+        <v>57.748800000000003</v>
+      </c>
+      <c r="S5" s="2">
+        <v>11</v>
+      </c>
+      <c r="T5" s="2">
+        <v>202</v>
+      </c>
+      <c r="U5" s="2">
+        <v>234</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" ref="V5:V12" si="1">((U5-T5)*100)/T5</f>
+        <v>15.841584158415841</v>
+      </c>
+      <c r="W5" s="3">
+        <v>123.661</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="2">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
+      <c r="H6" s="2">
         <v>264</v>
       </c>
-      <c r="C6" s="2">
+      <c r="I6" s="2">
         <v>264</v>
       </c>
-      <c r="D6" s="3">
+      <c r="J6" s="3">
+        <f t="shared" ref="J6:J12" si="2">((I6-H6)*100)/H6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>13.192500000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <v>12</v>
+      </c>
+      <c r="N6" s="2">
+        <v>264</v>
+      </c>
+      <c r="O6" s="2">
+        <v>264</v>
+      </c>
+      <c r="P6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <v>20.337499999999999</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="Q6" s="3">
+        <v>82.267300000000006</v>
+      </c>
+      <c r="S6" s="2">
         <v>12</v>
       </c>
-      <c r="H6" s="2">
+      <c r="T6" s="2">
         <v>264</v>
       </c>
-      <c r="I6" s="2">
+      <c r="U6" s="2">
         <v>264</v>
       </c>
-      <c r="J6" s="3">
+      <c r="V6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="3">
-        <v>42.6205</v>
-      </c>
-      <c r="M6" s="2">
-        <v>12</v>
-      </c>
-      <c r="N6" s="2">
-        <v>264</v>
-      </c>
-      <c r="O6" s="2">
-        <v>264</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="W6" s="3">
+        <v>184.696</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="2">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2">
+        <v>269</v>
+      </c>
+      <c r="I7" s="2">
+        <v>269</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="3">
-        <v>186.833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="K7" s="3">
+        <v>16.458400000000001</v>
+      </c>
+      <c r="M7" s="2">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="N7" s="2">
         <v>269</v>
       </c>
-      <c r="C7" s="2">
+      <c r="O7" s="2">
         <v>269</v>
       </c>
-      <c r="D7" s="3">
+      <c r="P7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <v>28.375900000000001</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="Q7" s="3">
+        <v>100.423</v>
+      </c>
+      <c r="S7" s="2">
         <v>13</v>
       </c>
-      <c r="H7" s="2">
+      <c r="T7" s="2">
         <v>269</v>
       </c>
-      <c r="I7" s="2">
+      <c r="U7" s="2">
         <v>269</v>
       </c>
-      <c r="J7" s="3">
+      <c r="V7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
-        <v>62.030500000000004</v>
-      </c>
-      <c r="M7" s="2">
-        <v>13</v>
-      </c>
-      <c r="N7" s="2">
-        <v>269</v>
-      </c>
-      <c r="O7" s="2">
-        <v>269</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>281.72699999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>125</v>
-      </c>
-      <c r="C8" s="2">
-        <v>358</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>186.4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>37.692</v>
-      </c>
+      <c r="W7" s="3">
+        <v>217.66200000000001</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="G8" s="2">
         <v>14</v>
       </c>
@@ -714,11 +5475,11 @@
         <v>381</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>204.8</v>
       </c>
       <c r="K8" s="3">
-        <v>81.829300000000003</v>
+        <v>17.455300000000001</v>
       </c>
       <c r="M8" s="2">
         <v>14</v>
@@ -727,33 +5488,43 @@
         <v>125</v>
       </c>
       <c r="O8" s="2">
-        <v>358</v>
+        <v>202</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="2"/>
-        <v>186.4</v>
+        <f t="shared" si="0"/>
+        <v>61.6</v>
       </c>
       <c r="Q8" s="3">
-        <v>389.762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
-        <v>291</v>
-      </c>
-      <c r="C9" s="2">
-        <v>393</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>35.051546391752581</v>
-      </c>
-      <c r="E9" s="3">
-        <v>49.162100000000002</v>
-      </c>
+        <v>149.869</v>
+      </c>
+      <c r="S8" s="2">
+        <v>14</v>
+      </c>
+      <c r="T8" s="2">
+        <v>125</v>
+      </c>
+      <c r="U8" s="2">
+        <v>202</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="1"/>
+        <v>61.6</v>
+      </c>
+      <c r="W8" s="3">
+        <v>292.10599999999999</v>
+      </c>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="G9" s="2">
         <v>15</v>
       </c>
@@ -764,11 +5535,11 @@
         <v>457</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.044673539518904</v>
       </c>
       <c r="K9" s="3">
-        <v>107.42700000000001</v>
+        <v>30.264199999999999</v>
       </c>
       <c r="M9" s="2">
         <v>15</v>
@@ -777,33 +5548,43 @@
         <v>291</v>
       </c>
       <c r="O9" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="2"/>
-        <v>39.518900343642613</v>
+        <f t="shared" si="0"/>
+        <v>39.175257731958766</v>
       </c>
       <c r="Q9" s="3">
-        <v>527.774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
-        <v>156</v>
-      </c>
-      <c r="C10" s="2">
-        <v>489</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>213.46153846153845</v>
-      </c>
-      <c r="E10" s="3">
-        <v>62.165900000000001</v>
-      </c>
+        <v>171.797</v>
+      </c>
+      <c r="S9" s="2">
+        <v>15</v>
+      </c>
+      <c r="T9" s="2">
+        <v>291</v>
+      </c>
+      <c r="U9" s="2">
+        <v>429</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="1"/>
+        <v>47.422680412371136</v>
+      </c>
+      <c r="W9" s="3">
+        <v>338.13299999999998</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="G10" s="2">
         <v>16</v>
       </c>
@@ -814,11 +5595,11 @@
         <v>378</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>142.30769230769232</v>
       </c>
       <c r="K10" s="3">
-        <v>134.4</v>
+        <v>40.099299999999999</v>
       </c>
       <c r="M10" s="2">
         <v>16</v>
@@ -827,83 +5608,103 @@
         <v>156</v>
       </c>
       <c r="O10" s="2">
-        <v>286</v>
+        <v>384</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>146.15384615384616</v>
       </c>
       <c r="Q10" s="3">
-        <v>661.12300000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2">
-        <v>183</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2399</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>1210.9289617486338</v>
-      </c>
-      <c r="E11" s="3">
-        <v>73.611099999999993</v>
-      </c>
+        <v>157.346</v>
+      </c>
+      <c r="S10" s="2">
+        <v>16</v>
+      </c>
+      <c r="T10" s="2">
+        <v>156</v>
+      </c>
+      <c r="U10" s="2">
+        <v>288</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="1"/>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="W10" s="3">
+        <v>332.81200000000001</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="G11" s="2">
         <v>17</v>
       </c>
-      <c r="H11" s="2">
-        <v>183</v>
+      <c r="H11" s="4">
+        <v>2085</v>
       </c>
       <c r="I11" s="2">
         <v>2399</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>1210.9289617486338</v>
+        <f t="shared" si="2"/>
+        <v>15.059952038369305</v>
       </c>
       <c r="K11" s="3">
-        <v>163.65899999999999</v>
+        <v>29.442699999999999</v>
       </c>
       <c r="M11" s="2">
         <v>17</v>
       </c>
-      <c r="N11" s="2">
-        <v>183</v>
+      <c r="N11" s="4">
+        <v>2085</v>
       </c>
       <c r="O11" s="2">
         <v>2399</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="2"/>
-        <v>1210.9289617486338</v>
+        <f t="shared" si="0"/>
+        <v>15.059952038369305</v>
       </c>
       <c r="Q11" s="3">
-        <v>784.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2">
-        <v>187</v>
-      </c>
-      <c r="C12" s="2">
-        <v>451</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>141.1764705882353</v>
-      </c>
-      <c r="E12" s="3">
-        <v>90.625900000000001</v>
-      </c>
+        <v>149.87200000000001</v>
+      </c>
+      <c r="S11" s="2">
+        <v>17</v>
+      </c>
+      <c r="T11" s="4">
+        <v>2085</v>
+      </c>
+      <c r="U11" s="2">
+        <v>2399</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="1"/>
+        <v>15.059952038369305</v>
+      </c>
+      <c r="W11" s="3">
+        <v>299.94400000000002</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="G12" s="2">
         <v>18</v>
       </c>
@@ -914,11 +5715,11 @@
         <v>441</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135.82887700534761</v>
       </c>
       <c r="K12" s="3">
-        <v>200.70500000000001</v>
+        <v>33.9803</v>
       </c>
       <c r="M12" s="2">
         <v>18</v>
@@ -927,46 +5728,69 @@
         <v>187</v>
       </c>
       <c r="O12" s="2">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="2"/>
-        <v>141.1764705882353</v>
+        <f t="shared" si="0"/>
+        <v>122.99465240641712</v>
       </c>
       <c r="Q12" s="3">
-        <v>956.00699999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3">
-        <f>SUM(D4:D12)/9</f>
-        <v>212.42470727772439</v>
+        <v>233.65</v>
+      </c>
+      <c r="S12" s="2">
+        <v>18</v>
+      </c>
+      <c r="T12" s="2">
+        <v>187</v>
+      </c>
+      <c r="U12" s="2">
+        <v>417</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="1"/>
+        <v>122.99465240641712</v>
+      </c>
+      <c r="W12" s="3">
+        <v>383.166</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+      <c r="G13" t="s">
+        <v>21</v>
       </c>
       <c r="J13" s="3">
         <f>SUM(J4:J12)/9</f>
-        <v>203.17158239886635</v>
+        <v>70.297247986614749</v>
       </c>
       <c r="P13" s="3">
         <f>SUM(P4:P12)/9</f>
-        <v>198.46239048035602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>62.932370024984039</v>
+      </c>
+      <c r="V13" s="3">
+        <f>SUM(V4:V12)/9</f>
+        <v>57.01114348520079</v>
+      </c>
+      <c r="AB13" s="3"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1"/>
       <c r="M17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N17" s="1"/>
     </row>
@@ -1244,15 +6068,15 @@
       <c r="A26" s="2">
         <v>17</v>
       </c>
-      <c r="B26" s="2">
-        <v>183</v>
+      <c r="B26" s="4">
+        <v>2085</v>
       </c>
       <c r="C26" s="2">
         <v>2588</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="3"/>
-        <v>1314.2076502732241</v>
+        <v>24.124700239808153</v>
       </c>
       <c r="E26" s="3">
         <v>168.11199999999999</v>
@@ -1260,15 +6084,15 @@
       <c r="M26" s="2">
         <v>17</v>
       </c>
-      <c r="N26" s="2">
-        <v>183</v>
+      <c r="N26" s="4">
+        <v>2085</v>
       </c>
       <c r="O26" s="2">
         <v>2939</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" si="6"/>
-        <v>1506.0109289617487</v>
+        <v>40.959232613908874</v>
       </c>
       <c r="Q26" s="3">
         <v>178.70500000000001</v>
@@ -1310,27 +6134,27 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
         <f>SUM(D19:D27)/9</f>
-        <v>225.97063946711378</v>
+        <v>82.628089463400912</v>
       </c>
       <c r="N28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P28" s="3">
         <f>SUM(P19:P27)/9</f>
-        <v>294.50215686336935</v>
+        <v>131.71863504694269</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1"/>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -1366,11 +6190,11 @@
         <v>3</v>
       </c>
       <c r="M33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N33" s="1"/>
       <c r="S33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T33" s="1"/>
     </row>
@@ -1838,15 +6662,15 @@
       <c r="A41" s="2">
         <v>17</v>
       </c>
-      <c r="B41" s="2">
-        <v>183</v>
+      <c r="B41" s="4">
+        <v>2085</v>
       </c>
       <c r="C41" s="2">
         <v>2656</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="15"/>
-        <v>1351.3661202185792</v>
+        <v>27.386091127098322</v>
       </c>
       <c r="E41" s="3">
         <v>137.99700000000001</v>
@@ -1854,15 +6678,15 @@
       <c r="G41" s="2">
         <v>17</v>
       </c>
-      <c r="H41" s="2">
-        <v>183</v>
+      <c r="H41" s="4">
+        <v>2085</v>
       </c>
       <c r="I41" s="2">
         <v>2317</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="16"/>
-        <v>1166.1202185792349</v>
+        <v>11.127098321342926</v>
       </c>
       <c r="K41" s="3">
         <v>139.39400000000001</v>
@@ -1936,15 +6760,15 @@
       <c r="M42" s="2">
         <v>17</v>
       </c>
-      <c r="N42" s="2">
-        <v>183</v>
+      <c r="N42" s="4">
+        <v>2085</v>
       </c>
       <c r="O42" s="2">
         <v>2184</v>
       </c>
       <c r="P42" s="3">
         <f t="shared" si="17"/>
-        <v>1093.4426229508197</v>
+        <v>4.7482014388489207</v>
       </c>
       <c r="Q42" s="3">
         <v>176.029</v>
@@ -1952,15 +6776,15 @@
       <c r="S42" s="2">
         <v>17</v>
       </c>
-      <c r="T42" s="2">
-        <v>183</v>
+      <c r="T42" s="4">
+        <v>2085</v>
       </c>
       <c r="U42" s="2">
         <v>2188</v>
       </c>
       <c r="V42" s="3">
         <f>((U42-T42)*100)/T42</f>
-        <v>1095.6284153005465</v>
+        <v>4.9400479616306958</v>
       </c>
       <c r="W42" s="3">
         <v>158.834</v>
@@ -1968,18 +6792,18 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" s="3">
         <f>SUM(D34:D42)/9</f>
-        <v>262.23355020678531</v>
+        <v>115.12465808550967</v>
       </c>
       <c r="H43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J43" s="3">
         <f>SUM(J34:J42)/9</f>
-        <v>254.27859979998635</v>
+        <v>125.94603088244281</v>
       </c>
       <c r="M43" s="2">
         <v>18</v>
@@ -2016,23 +6840,23 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P44" s="3">
         <f>SUM(P35:P43)/9</f>
-        <v>243.33173824832764</v>
+        <v>122.36569141366424</v>
       </c>
       <c r="T44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V44" s="3">
         <f>SUM(V35:V43)/9</f>
-        <v>262.93592381406449</v>
+        <v>141.74832744307389</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1"/>
     </row>
@@ -2053,7 +6877,7 @@
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -2090,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N49" s="1"/>
     </row>
@@ -2397,15 +7221,15 @@
       <c r="A56" s="2">
         <v>17</v>
       </c>
-      <c r="B56" s="2">
-        <v>183</v>
+      <c r="B56" s="4">
+        <v>2085</v>
       </c>
       <c r="C56" s="2">
         <v>2725</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="25"/>
-        <v>1389.0710382513662</v>
+        <v>30.695443645083934</v>
       </c>
       <c r="E56" s="3">
         <v>162.61699999999999</v>
@@ -2463,15 +7287,15 @@
       <c r="G57" s="2">
         <v>17</v>
       </c>
-      <c r="H57" s="2">
-        <v>183</v>
+      <c r="H57" s="4">
+        <v>2085</v>
       </c>
       <c r="I57" s="2">
         <v>2337</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="26"/>
-        <v>1177.049180327869</v>
+        <v>12.086330935251798</v>
       </c>
       <c r="K57" s="3">
         <v>182.643</v>
@@ -2495,11 +7319,11 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D58" s="3">
         <f>SUM(D49:D57)/9</f>
-        <v>258.23875466457503</v>
+        <v>107.30813304165483</v>
       </c>
       <c r="G58" s="2">
         <v>18</v>
@@ -2520,15 +7344,15 @@
       <c r="M58" s="2">
         <v>17</v>
       </c>
-      <c r="N58" s="2">
-        <v>183</v>
+      <c r="N58" s="4">
+        <v>2085</v>
       </c>
       <c r="O58" s="2">
         <v>3733</v>
       </c>
       <c r="P58" s="3">
         <f t="shared" si="27"/>
-        <v>1939.8907103825136</v>
+        <v>79.040767386091133</v>
       </c>
       <c r="Q58" s="3">
         <v>188.63300000000001</v>
@@ -2536,11 +7360,11 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J59" s="3">
         <f>SUM(J50:J58)/9</f>
-        <v>231.85542127154551</v>
+        <v>102.41510467236579</v>
       </c>
       <c r="M59" s="2">
         <v>18</v>
@@ -2561,16 +7385,16 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P60" s="3">
         <f>SUM(P51:P59)/9</f>
-        <v>303.99148416824522</v>
+        <v>97.230379390864925</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B62" s="1"/>
       <c r="G62" t="s">
@@ -2825,7 +7649,7 @@
         <v>62271</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" ref="D70:D72" si="32">((C70-B70)*100)/B70</f>
+        <f t="shared" ref="D70:D71" si="32">((C70-B70)*100)/B70</f>
         <v>71.876897598675129</v>
       </c>
       <c r="E70" s="3">
@@ -2896,21 +7720,1369 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D73" s="3">
         <f>SUM(D64:D71)/8</f>
         <v>43.859890801330344</v>
       </c>
       <c r="H73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J73" s="3">
         <f>SUM(J64:J71)/8</f>
         <v>35.008093858781578</v>
       </c>
     </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>17</v>
+      </c>
+      <c r="B79" s="2">
+        <v>39</v>
+      </c>
+      <c r="C79" s="2">
+        <v>51</v>
+      </c>
+      <c r="D79" s="3">
+        <f>((C79-B79)*100)/B79</f>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="E79" s="3">
+        <v>69.519400000000005</v>
+      </c>
+      <c r="G79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>36</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1473</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1890</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" ref="D80" si="34">((C80-B80)*100)/B80</f>
+        <v>28.309572301425661</v>
+      </c>
+      <c r="E80" s="3">
+        <v>432.84500000000003</v>
+      </c>
+      <c r="G80" s="2">
+        <v>17</v>
+      </c>
+      <c r="H80" s="2">
+        <v>2085</v>
+      </c>
+      <c r="I80" s="2">
+        <v>2399</v>
+      </c>
+      <c r="J80" s="3">
+        <f>((I80-H80)*100)/H80</f>
+        <v>15.059952038369305</v>
+      </c>
+      <c r="K80" s="3">
+        <v>42.919499999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>43</v>
+      </c>
+      <c r="B81" s="2">
+        <v>5620</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5704</v>
+      </c>
+      <c r="D81" s="3">
+        <f>((C81-B81)*100)/B81</f>
+        <v>1.4946619217081851</v>
+      </c>
+      <c r="E81" s="3">
+        <v>662.21500000000003</v>
+      </c>
+      <c r="G81" s="2">
+        <v>21</v>
+      </c>
+      <c r="H81" s="2">
+        <v>2707</v>
+      </c>
+      <c r="I81" s="2">
+        <v>3554</v>
+      </c>
+      <c r="J81" s="3">
+        <f t="shared" ref="J81" si="35">((I81-H81)*100)/H81</f>
+        <v>31.289250092353157</v>
+      </c>
+      <c r="K81" s="3">
+        <v>99.953299999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>48</v>
+      </c>
+      <c r="B82" s="2">
+        <v>14422</v>
+      </c>
+      <c r="C82" s="2">
+        <v>20134</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" ref="D82:D83" si="36">((C82-B82)*100)/B82</f>
+        <v>39.606157259742062</v>
+      </c>
+      <c r="E82" s="3">
+        <v>644.90200000000004</v>
+      </c>
+      <c r="G82" s="2">
+        <v>24</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1272</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1637</v>
+      </c>
+      <c r="J82" s="3">
+        <f>((I82-H82)*100)/H82</f>
+        <v>28.69496855345912</v>
+      </c>
+      <c r="K82" s="3">
+        <v>128.054</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>56</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1608</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2215</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="36"/>
+        <v>37.74875621890547</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1167.82</v>
+      </c>
+      <c r="G83" s="2">
+        <v>26</v>
+      </c>
+      <c r="H83" s="2">
+        <v>937</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1011</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" ref="J83:J84" si="37">((I83-H83)*100)/H83</f>
+        <v>7.8975453575240131</v>
+      </c>
+      <c r="K83" s="3">
+        <v>185.602</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>70</v>
+      </c>
+      <c r="B84" s="2">
+        <v>38673</v>
+      </c>
+      <c r="C84" s="2">
+        <v>42806</v>
+      </c>
+      <c r="D84" s="3">
+        <f>((C84-B84)*100)/B84</f>
+        <v>10.687042639567657</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1628.6</v>
+      </c>
+      <c r="G84" s="2">
+        <v>29</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1610</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2032</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="37"/>
+        <v>26.211180124223603</v>
+      </c>
+      <c r="K84" s="3">
+        <v>223.042</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>100</v>
+      </c>
+      <c r="B85" s="2">
+        <v>36230</v>
+      </c>
+      <c r="C85" s="2">
+        <v>62339</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" ref="D85:D86" si="38">((C85-B85)*100)/B85</f>
+        <v>72.064587358542639</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3099.82</v>
+      </c>
+      <c r="G85" s="2">
+        <v>42</v>
+      </c>
+      <c r="H85" s="2">
+        <v>699</v>
+      </c>
+      <c r="I85" s="2">
+        <v>699</v>
+      </c>
+      <c r="J85" s="3">
+        <f>((I85-H85)*100)/H85</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>641.726</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>323</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1326</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1705</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="38"/>
+        <v>28.582202111613878</v>
+      </c>
+      <c r="E86" s="3">
+        <v>119347</v>
+      </c>
+      <c r="G86" s="2">
+        <v>58</v>
+      </c>
+      <c r="H86" s="2">
+        <v>25395</v>
+      </c>
+      <c r="I86" s="2">
+        <v>37572</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" ref="J86:J87" si="39">((I86-H86)*100)/H86</f>
+        <v>47.950383933845245</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1128.57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="G87" s="2">
+        <v>120</v>
+      </c>
+      <c r="H87" s="2">
+        <v>6942</v>
+      </c>
+      <c r="I87" s="2">
+        <v>15090</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="39"/>
+        <v>117.37251512532411</v>
+      </c>
+      <c r="K87" s="3">
+        <v>6705.36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3">
+        <f>SUM(D79:D86)/8</f>
+        <v>31.157776322592039</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D89" s="3"/>
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="3">
+        <f>SUM(J80:J87)/8</f>
+        <v>34.309474403137322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J90" s="3"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>17</v>
+      </c>
+      <c r="B94" s="2">
+        <v>39</v>
+      </c>
+      <c r="C94" s="2">
+        <v>53</v>
+      </c>
+      <c r="D94" s="3">
+        <f>((C94-B94)*100)/B94</f>
+        <v>35.897435897435898</v>
+      </c>
+      <c r="E94" s="3">
+        <v>221.08199999999999</v>
+      </c>
+      <c r="G94" s="2">
+        <v>17</v>
+      </c>
+      <c r="H94" s="2">
+        <v>2085</v>
+      </c>
+      <c r="I94" s="2">
+        <v>2399</v>
+      </c>
+      <c r="J94" s="3">
+        <f>((I94-H94)*100)/H94</f>
+        <v>15.059952038369305</v>
+      </c>
+      <c r="K94" s="3">
+        <v>146.52699999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>36</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1473</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2081</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" ref="D95" si="40">((C95-B95)*100)/B95</f>
+        <v>41.276306856754921</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1405</v>
+      </c>
+      <c r="G95" s="2">
+        <v>21</v>
+      </c>
+      <c r="H95" s="2">
+        <v>2707</v>
+      </c>
+      <c r="I95" s="2">
+        <v>3500</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" ref="J95" si="41">((I95-H95)*100)/H95</f>
+        <v>29.294421869227929</v>
+      </c>
+      <c r="K95" s="3">
+        <v>355.67599999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>43</v>
+      </c>
+      <c r="B96" s="2">
+        <v>5620</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5714</v>
+      </c>
+      <c r="D96" s="3">
+        <f>((C96-B96)*100)/B96</f>
+        <v>1.6725978647686832</v>
+      </c>
+      <c r="E96" s="3">
+        <v>2176.54</v>
+      </c>
+      <c r="G96" s="2">
+        <v>24</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1272</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1588</v>
+      </c>
+      <c r="J96" s="3">
+        <f>((I96-H96)*100)/H96</f>
+        <v>24.842767295597483</v>
+      </c>
+      <c r="K96" s="3">
+        <v>394.41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>48</v>
+      </c>
+      <c r="B97" s="2">
+        <v>14422</v>
+      </c>
+      <c r="C97" s="2">
+        <v>19706</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" ref="D97:D98" si="42">((C97-B97)*100)/B97</f>
+        <v>36.638469005685756</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2081.71</v>
+      </c>
+      <c r="G97" s="2">
+        <v>26</v>
+      </c>
+      <c r="H97" s="2">
+        <v>937</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" ref="J97:J98" si="43">((I97-H97)*100)/H97</f>
+        <v>6.7235859124866595</v>
+      </c>
+      <c r="K97" s="3">
+        <v>686.86099999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>56</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1608</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2215</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="42"/>
+        <v>37.74875621890547</v>
+      </c>
+      <c r="E98" s="3">
+        <v>3613.51</v>
+      </c>
+      <c r="G98" s="2">
+        <v>29</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1610</v>
+      </c>
+      <c r="I98" s="2">
+        <v>2104</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="43"/>
+        <v>30.683229813664596</v>
+      </c>
+      <c r="K98" s="3">
+        <v>740.86699999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>70</v>
+      </c>
+      <c r="B99" s="2">
+        <v>38673</v>
+      </c>
+      <c r="C99" s="2">
+        <v>42806</v>
+      </c>
+      <c r="D99" s="3">
+        <f>((C99-B99)*100)/B99</f>
+        <v>10.687042639567657</v>
+      </c>
+      <c r="E99" s="3">
+        <v>5031.45</v>
+      </c>
+      <c r="G99" s="2">
+        <v>42</v>
+      </c>
+      <c r="H99" s="2">
+        <v>699</v>
+      </c>
+      <c r="I99" s="2">
+        <v>699</v>
+      </c>
+      <c r="J99" s="3">
+        <f>((I99-H99)*100)/H99</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1879.27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2">
+        <v>36230</v>
+      </c>
+      <c r="C100" s="2">
+        <v>62380</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" ref="D100:D101" si="44">((C100-B100)*100)/B100</f>
+        <v>72.177753243168638</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10290.6</v>
+      </c>
+      <c r="G100" s="2">
+        <v>58</v>
+      </c>
+      <c r="H100" s="2">
+        <v>25395</v>
+      </c>
+      <c r="I100" s="2">
+        <v>37572</v>
+      </c>
+      <c r="J100" s="3">
+        <f t="shared" ref="J100:J101" si="45">((I100-H100)*100)/H100</f>
+        <v>47.950383933845245</v>
+      </c>
+      <c r="K100" s="3">
+        <v>3626.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>323</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1326</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1705</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" si="44"/>
+        <v>28.582202111613878</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="G101" s="2">
+        <v>120</v>
+      </c>
+      <c r="H101" s="2">
+        <v>6942</v>
+      </c>
+      <c r="I101" s="2">
+        <v>15090</v>
+      </c>
+      <c r="J101" s="3">
+        <f t="shared" si="45"/>
+        <v>117.37251512532411</v>
+      </c>
+      <c r="K101" s="3">
+        <v>22509.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="3">
+        <f>SUM(D94:D101)/8</f>
+        <v>33.085070479737617</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="J103" s="3">
+        <f>SUM(J94:J101)/8</f>
+        <v>33.990856998564418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>5</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>17</v>
+      </c>
+      <c r="B110" s="2">
+        <v>39</v>
+      </c>
+      <c r="C110" s="2">
+        <v>130</v>
+      </c>
+      <c r="D110" s="3">
+        <f>((C110-B110)*100)/B110</f>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="2">
+        <v>17</v>
+      </c>
+      <c r="H110" s="2">
+        <v>2085</v>
+      </c>
+      <c r="I110" s="2">
+        <v>2945</v>
+      </c>
+      <c r="J110" s="3">
+        <f>((I110-H110)*100)/H110</f>
+        <v>41.247002398081534</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>36</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1473</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1989</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" ref="D111" si="46">((C111-B111)*100)/B111</f>
+        <v>35.030549898167003</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="2">
+        <v>21</v>
+      </c>
+      <c r="H111" s="2">
+        <v>2707</v>
+      </c>
+      <c r="I111" s="2">
+        <v>3759</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" ref="J111" si="47">((I111-H111)*100)/H111</f>
+        <v>38.862209087550795</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>43</v>
+      </c>
+      <c r="B112" s="2">
+        <v>5620</v>
+      </c>
+      <c r="C112" s="2">
+        <v>5689</v>
+      </c>
+      <c r="D112" s="3">
+        <f>((C112-B112)*100)/B112</f>
+        <v>1.2277580071174377</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="2">
+        <v>24</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1272</v>
+      </c>
+      <c r="I112" s="2">
+        <v>1858</v>
+      </c>
+      <c r="J112" s="3">
+        <f>((I112-H112)*100)/H112</f>
+        <v>46.069182389937104</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>48</v>
+      </c>
+      <c r="B113" s="2">
+        <v>14422</v>
+      </c>
+      <c r="C113" s="2">
+        <v>19735</v>
+      </c>
+      <c r="D113" s="3">
+        <f t="shared" ref="D113:D114" si="48">((C113-B113)*100)/B113</f>
+        <v>36.839550686451254</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G113" s="2">
+        <v>26</v>
+      </c>
+      <c r="H113" s="2">
+        <v>937</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1216</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" ref="J113:J114" si="49">((I113-H113)*100)/H113</f>
+        <v>29.775880469583779</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>56</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1608</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2408</v>
+      </c>
+      <c r="D114" s="3">
+        <f t="shared" si="48"/>
+        <v>49.75124378109453</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="2">
+        <v>29</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1610</v>
+      </c>
+      <c r="I114" s="2">
+        <v>2155</v>
+      </c>
+      <c r="J114" s="3">
+        <f t="shared" si="49"/>
+        <v>33.850931677018636</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>70</v>
+      </c>
+      <c r="B115" s="2">
+        <v>38673</v>
+      </c>
+      <c r="C115" s="2">
+        <v>43260</v>
+      </c>
+      <c r="D115" s="3">
+        <f>((C115-B115)*100)/B115</f>
+        <v>11.860988286401366</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G115" s="2">
+        <v>42</v>
+      </c>
+      <c r="H115" s="2">
+        <v>699</v>
+      </c>
+      <c r="I115" s="2">
+        <v>699</v>
+      </c>
+      <c r="J115" s="3">
+        <f>((I115-H115)*100)/H115</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>100</v>
+      </c>
+      <c r="B116" s="2">
+        <v>36230</v>
+      </c>
+      <c r="C116" s="2">
+        <v>60839</v>
+      </c>
+      <c r="D116" s="3">
+        <f t="shared" ref="D116:D117" si="50">((C116-B116)*100)/B116</f>
+        <v>67.924372067347505</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" s="2">
+        <v>58</v>
+      </c>
+      <c r="H116" s="2">
+        <v>25395</v>
+      </c>
+      <c r="I116" s="2">
+        <v>42830</v>
+      </c>
+      <c r="J116" s="3">
+        <f t="shared" ref="J116:J117" si="51">((I116-H116)*100)/H116</f>
+        <v>68.655247095885017</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>323</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1326</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1651</v>
+      </c>
+      <c r="D117" s="3">
+        <f t="shared" si="50"/>
+        <v>24.509803921568629</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="G117" s="2">
+        <v>120</v>
+      </c>
+      <c r="H117" s="2">
+        <v>6942</v>
+      </c>
+      <c r="I117" s="2">
+        <v>11879</v>
+      </c>
+      <c r="J117" s="3">
+        <f t="shared" si="51"/>
+        <v>71.117833477384039</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="3">
+        <f>SUM(D110:D117)/8</f>
+        <v>57.559699997685136</v>
+      </c>
+      <c r="H119" t="s">
+        <v>6</v>
+      </c>
+      <c r="J119" s="3">
+        <f>SUM(J110:J117)/8</f>
+        <v>41.197285824430111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>17</v>
+      </c>
+      <c r="B130" s="2">
+        <v>39</v>
+      </c>
+      <c r="C130" s="2">
+        <v>87</v>
+      </c>
+      <c r="D130" s="3">
+        <f>((C130-B130)*100)/B130</f>
+        <v>123.07692307692308</v>
+      </c>
+      <c r="E130" s="3">
+        <v>40.320700000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>34</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1286</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1773</v>
+      </c>
+      <c r="D131" s="3">
+        <f>((C131-B131)*100)/B131</f>
+        <v>37.86936236391913</v>
+      </c>
+      <c r="E131" s="3">
+        <v>292.02199999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>36</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1473</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2051</v>
+      </c>
+      <c r="D132" s="3">
+        <f>((C132-B132)*100)/B132</f>
+        <v>39.239646978954518</v>
+      </c>
+      <c r="E132" s="3">
+        <v>686.31700000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>39</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1530</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D133" s="3">
+        <f t="shared" ref="D133:D134" si="52">((C133-B133)*100)/B133</f>
+        <v>30.84967320261438</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1015.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>43</v>
+      </c>
+      <c r="B134" s="2">
+        <v>5620</v>
+      </c>
+      <c r="C134" s="2">
+        <v>5713</v>
+      </c>
+      <c r="D134" s="3">
+        <f t="shared" si="52"/>
+        <v>1.6548042704626333</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1621.01</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>45</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1613</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2263</v>
+      </c>
+      <c r="D135" s="3">
+        <f>((C135-B135)*100)/B135</f>
+        <v>40.297582145071296</v>
+      </c>
+      <c r="E135" s="3">
+        <v>2460.14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>48</v>
+      </c>
+      <c r="B136" s="2">
+        <v>14422</v>
+      </c>
+      <c r="C136" s="2">
+        <v>19706</v>
+      </c>
+      <c r="D136" s="3">
+        <f t="shared" ref="D136:D137" si="53">((C136-B136)*100)/B136</f>
+        <v>36.638469005685756</v>
+      </c>
+      <c r="E136" s="3">
+        <v>3858.34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>53</v>
+      </c>
+      <c r="B137" s="2">
+        <v>9605</v>
+      </c>
+      <c r="C137" s="2">
+        <v>10250</v>
+      </c>
+      <c r="D137" s="3">
+        <f t="shared" si="53"/>
+        <v>6.7152524726704845</v>
+      </c>
+      <c r="E137" s="3">
+        <v>65674.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>56</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1608</v>
+      </c>
+      <c r="C138">
+        <v>2215</v>
+      </c>
+      <c r="D138" s="3">
+        <f>((C138-B138)*100)/B138</f>
+        <v>37.74875621890547</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>65</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1839</v>
+      </c>
+      <c r="C139">
+        <v>2644</v>
+      </c>
+      <c r="D139" s="3">
+        <f>((C139-B139)*100)/B139</f>
+        <v>43.773790103317019</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>70</v>
+      </c>
+      <c r="B140" s="2">
+        <v>38673</v>
+      </c>
+      <c r="C140">
+        <v>42806</v>
+      </c>
+      <c r="D140" s="3">
+        <f>((C140-B140)*100)/B140</f>
+        <v>10.687042639567657</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>71</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C141">
+        <v>2630</v>
+      </c>
+      <c r="D141" s="3">
+        <f t="shared" ref="D141:D142" si="54">((C141-B141)*100)/B141</f>
+        <v>34.871794871794869</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>100</v>
+      </c>
+      <c r="B142" s="2">
+        <v>36230</v>
+      </c>
+      <c r="C142">
+        <v>62271</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" si="54"/>
+        <v>71.876897598675129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>171</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2755</v>
+      </c>
+      <c r="C143">
+        <v>4560</v>
+      </c>
+      <c r="D143" s="3">
+        <f>((C143-B143)*100)/B143</f>
+        <v>65.517241379310349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>323</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>358</v>
+      </c>
+      <c r="B145" s="2">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>403</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>443</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="3">
+        <f>SUM(D130:D143)/14</f>
+        <v>41.486945451990842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>